--- a/data/Generator instance 5000km/Scenario Map.xlsx
+++ b/data/Generator instance 5000km/Scenario Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deakin365-my.sharepoint.com/personal/j_callesalazar_deakin_edu_au/Documents/calle test/Disun Applications/Gurobi Applications/data/Generator instance 5000km/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_7EE2D314206357C63C561A8C6379FD6B31AE6B40" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FD4C866-A99D-4E04-B935-1C95352A364B}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_7EE2D314206357C63C561A8C6379FD6B31AE6B40" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F1D9D55-58B6-44EA-B48D-CF5F7E40D65C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="32700" yWindow="1590" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generate Tables" sheetId="1" r:id="rId1"/>
@@ -9308,8 +9308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
